--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CGG/cgg.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CGG/cgg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CGG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CGG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0602438D-1C0D-4114-A874-7138808B8D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF62E7B-90F6-46D4-8179-69EEAB8463E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,60 @@
     <xf numFmtId="10" fontId="6" fillId="10" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1877,60 +1931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3217,11 +3217,11 @@
       <c r="L1" s="124">
         <v>43830</v>
       </c>
-      <c r="S1" s="172" t="s">
+      <c r="S1" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="173"/>
-      <c r="U1" s="174"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="160"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
@@ -3249,16 +3249,16 @@
       <c r="L2" s="69">
         <v>1.5487000000000001E-2</v>
       </c>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
       <c r="Q2" s="70"/>
-      <c r="S2" s="175" t="s">
+      <c r="S2" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="176"/>
-      <c r="U2" s="177"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="163"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
@@ -3306,11 +3306,11 @@
         <v>36</v>
       </c>
       <c r="O3" s="76"/>
-      <c r="S3" s="178" t="s">
+      <c r="S3" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="179"/>
-      <c r="U3" s="180"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="166"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65">
@@ -3344,11 +3344,11 @@
       <c r="I4" s="66">
         <v>-6.551609860555252E-3</v>
       </c>
-      <c r="S4" s="181" t="s">
+      <c r="S4" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="182"/>
-      <c r="U4" s="183"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="169"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65">
@@ -3415,29 +3415,29 @@
       <c r="I6" s="66">
         <v>2.9145963250742035E-2</v>
       </c>
-      <c r="K6" s="164" t="s">
+      <c r="K6" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="166"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="184"/>
       <c r="S6" s="77"/>
       <c r="T6" s="78"/>
-      <c r="U6" s="184" t="str">
+      <c r="U6" s="170" t="str">
         <f>B1</f>
         <v>CGGAX</v>
       </c>
-      <c r="V6" s="168" t="str">
+      <c r="V6" s="154" t="str">
         <f>D1</f>
         <v>SP500TR</v>
       </c>
-      <c r="W6" s="168" t="str">
+      <c r="W6" s="154" t="str">
         <f>F1</f>
         <v>Barclays Agg</v>
       </c>
-      <c r="X6" s="170" t="str">
+      <c r="X6" s="156" t="str">
         <f>H1</f>
         <v>FTSE Nareit</v>
       </c>
@@ -3478,10 +3478,10 @@
       <c r="P7" s="83"/>
       <c r="S7" s="79"/>
       <c r="T7" s="80"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="171"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="157"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
@@ -4063,10 +4063,10 @@
         <f>X29*100</f>
         <v>9.56</v>
       </c>
-      <c r="S15" s="162" t="s">
+      <c r="S15" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="163"/>
+      <c r="T15" s="181"/>
       <c r="U15" s="94" t="str">
         <f>U6</f>
         <v>CGGAX</v>
@@ -4140,11 +4140,11 @@
       <c r="Q16" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="S16" s="158" t="str">
+      <c r="S16" s="176" t="str">
         <f>S8</f>
         <v>YTD</v>
       </c>
-      <c r="T16" s="159"/>
+      <c r="T16" s="177"/>
       <c r="U16" s="98">
         <f>($U$13-U8)/U8</f>
         <v>0.17964010806953154</v>
@@ -4218,11 +4218,11 @@
       <c r="Q17" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="S17" s="158" t="str">
+      <c r="S17" s="176" t="str">
         <f>S9</f>
         <v>1YR</v>
       </c>
-      <c r="T17" s="159"/>
+      <c r="T17" s="177"/>
       <c r="U17" s="98">
         <f>($U$13-U9)/U9</f>
         <v>0.17964010806953154</v>
@@ -4296,11 +4296,11 @@
       <c r="Q18" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="158" t="str">
+      <c r="S18" s="176" t="str">
         <f>S10</f>
         <v>5YR</v>
       </c>
-      <c r="T18" s="159"/>
+      <c r="T18" s="177"/>
       <c r="U18" s="98">
         <f>U13/U10-1</f>
         <v>0.27197273676688827</v>
@@ -4357,10 +4357,10 @@
       <c r="O19" s="101"/>
       <c r="P19" s="102"/>
       <c r="Q19" s="70"/>
-      <c r="S19" s="158" t="s">
+      <c r="S19" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="T19" s="159"/>
+      <c r="T19" s="177"/>
       <c r="U19" s="98">
         <f>(1+U18)^(12/60)-1</f>
         <v>4.9290064313529003E-2</v>
@@ -4411,11 +4411,11 @@
         <v>-2.943472438068806E-3</v>
       </c>
       <c r="Q20" s="70"/>
-      <c r="S20" s="158" t="str">
+      <c r="S20" s="176" t="str">
         <f>S11</f>
         <v>10YR</v>
       </c>
-      <c r="T20" s="159"/>
+      <c r="T20" s="177"/>
       <c r="U20" s="98">
         <f>U13/U11-1</f>
         <v>1.341732442825339</v>
@@ -4471,10 +4471,10 @@
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="70"/>
-      <c r="S21" s="167" t="s">
+      <c r="S21" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="159"/>
+      <c r="T21" s="177"/>
       <c r="U21" s="98">
         <f>(1+U20)^(1/10)-1</f>
         <v>8.8814077411453862E-2</v>
@@ -4530,10 +4530,10 @@
       <c r="L22" s="130">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="S22" s="160" t="s">
+      <c r="S22" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="161"/>
+      <c r="T22" s="179"/>
       <c r="U22" s="98">
         <f>($U$13-U12)/U12</f>
         <v>1.3141</v>
@@ -4592,10 +4592,10 @@
       <c r="M23" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="S23" s="156" t="s">
+      <c r="S23" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="157"/>
+      <c r="T23" s="175"/>
       <c r="U23" s="103">
         <f>(1+U22)^(12/$L$3)-1</f>
         <v>8.7522403083373002E-2</v>
@@ -8316,14 +8316,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="U6:U7"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="S19:T19"/>
@@ -8335,6 +8327,14 @@
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="S21:T21"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M23" r:id="rId1" xr:uid="{2D470A2D-0297-49B3-A480-C8127D66E7BC}"/>
@@ -10519,7 +10519,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDB4C3-C7EC-4BC8-B6AD-1E728CD03BE0}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10578,13 +10578,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A774850-EF96-4B02-958F-C4A7F3DA1524}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10920,13 +10918,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227DC697-1A8A-4F8D-8E36-ED9C40B1D040}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11082,13 +11078,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0922C6FD-37B5-4038-B34A-A8C3721427FB}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
